--- a/mf-intelligence/data/separated_files/sbi/SBI Consumption Opportunities Fund/SBI Consumption Opportunities Fund_Apr_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Consumption Opportunities Fund/SBI Consumption Opportunities Fund_Apr_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1783 +436,1311 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Ltd.</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100095</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bharti Airtel Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE397D01024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Telecom - Services</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15475.35</v>
+      </c>
       <c r="F2" t="n">
-        <v>830000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15475.35</v>
-      </c>
-      <c r="H2" t="n">
         <v>5.11</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Ltd.</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100106</t>
+          <t>INE585B01010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maruti Suzuki India Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE585B01010</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15321.25</v>
+      </c>
       <c r="F3" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15321.25</v>
-      </c>
-      <c r="H3" t="n">
         <v>5.06</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jubilant Foodworks Ltd.</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100227</t>
+          <t>INE797F01020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jubilant Foodworks Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE797F01020</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>2136850</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15287.02</v>
+      </c>
       <c r="F4" t="n">
-        <v>2136850</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15287.02</v>
-      </c>
-      <c r="H4" t="n">
         <v>5.05</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Britannia Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100126</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Britannia Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE216A01030</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>244000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13270.92</v>
+      </c>
       <c r="F5" t="n">
-        <v>244000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13270.92</v>
-      </c>
-      <c r="H5" t="n">
         <v>4.38</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ganesha Ecosphere Ltd.</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100552</t>
+          <t>INE845D01014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ganesha Ecosphere Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE845D01014</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>906823</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13102.69</v>
+      </c>
       <c r="F6" t="n">
-        <v>906823</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13102.69</v>
-      </c>
-      <c r="H6" t="n">
         <v>4.33</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Berger Paints India Ltd.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100196</t>
+          <t>INE463A01038</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Berger Paints India Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE463A01038</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>2350172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12789.64</v>
+      </c>
       <c r="F7" t="n">
-        <v>2350172</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12789.64</v>
-      </c>
-      <c r="H7" t="n">
         <v>4.22</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>United Breweries Ltd.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100121</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>United Breweries Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE686F01025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>588029</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12701.43</v>
+      </c>
       <c r="F8" t="n">
-        <v>588029</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12701.43</v>
-      </c>
-      <c r="H8" t="n">
         <v>4.19</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Ltd.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100099</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE030A01027</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>525000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12296.03</v>
+      </c>
       <c r="F9" t="n">
-        <v>525000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12296.03</v>
-      </c>
-      <c r="H9" t="n">
         <v>4.06</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ITC Ltd.</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100019</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITC Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE154A01025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11709.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>2750000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11709.5</v>
-      </c>
-      <c r="H10" t="n">
         <v>3.87</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colgate Palmolive (India) Ltd.</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100154</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Colgate Palmolive (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE259A01022</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Personal Products</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10996.45</v>
+      </c>
       <c r="F11" t="n">
-        <v>425000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10996.45</v>
-      </c>
-      <c r="H11" t="n">
         <v>3.63</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Page Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100200</t>
+          <t>INE761H01022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Page Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE761H01022</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>20178</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9204.190000000001</v>
+      </c>
       <c r="F12" t="n">
-        <v>20178</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9204.190000000001</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.04</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Avenue Supermarts Ltd.</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100628</t>
+          <t>INE192R01011</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Avenue Supermarts Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE192R01011</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>175111</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7354.49</v>
+      </c>
       <c r="F13" t="n">
-        <v>175111</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7354.49</v>
-      </c>
-      <c r="H13" t="n">
         <v>2.43</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EIH Ltd.</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>101679</t>
+          <t>INE230A01023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIH Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE230A01023</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1984044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7349.89</v>
+      </c>
       <c r="F14" t="n">
-        <v>1984044</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7349.89</v>
-      </c>
-      <c r="H14" t="n">
         <v>2.43</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mahindra &amp; Mahindra Ltd.</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100014</t>
+          <t>INE101A01026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mahindra &amp; Mahindra Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE101A01026</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>245000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7175.56</v>
+      </c>
       <c r="F15" t="n">
-        <v>245000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7175.56</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.37</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Eicher Motors Ltd.</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100128</t>
+          <t>INE066A01021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eicher Motors Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE066A01021</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>125956</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7011.97</v>
+      </c>
       <c r="F16" t="n">
-        <v>125956</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7011.97</v>
-      </c>
-      <c r="H16" t="n">
         <v>2.32</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Doms Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>102038</t>
+          <t>INE321T01012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Doms Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE321T01012</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Household Products</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6865</v>
+      </c>
       <c r="F17" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6865</v>
-      </c>
-      <c r="H17" t="n">
         <v>2.27</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>United Spirits Ltd.</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100223</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>United Spirits Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE854D01024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>433594</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6780.98</v>
+      </c>
       <c r="F18" t="n">
-        <v>433594</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6780.98</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.24</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FSN E-Commerce Ventures Ltd.</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>101378</t>
+          <t>INE388Y01029</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FSN E-Commerce Ventures Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE388Y01029</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>3455152</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6715.78</v>
+      </c>
       <c r="F19" t="n">
-        <v>3455152</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6715.78</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.22</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TVS Motor Company Ltd.</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100280</t>
+          <t>INE494B01023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TVS Motor Company Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE494B01023</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>250722</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6699.29</v>
+      </c>
       <c r="F20" t="n">
-        <v>250722</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6699.29</v>
-      </c>
-      <c r="H20" t="n">
         <v>2.21</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Voltas Ltd.</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100144</t>
+          <t>INE226A01021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Voltas Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE226A01021</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>505000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6242.31</v>
+      </c>
       <c r="F21" t="n">
-        <v>505000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6242.31</v>
-      </c>
-      <c r="H21" t="n">
         <v>2.06</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Blue Star Ltd.</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100282</t>
+          <t>INE472A01039</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Blue Star Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE472A01039</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>325000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5545.48</v>
+      </c>
       <c r="F22" t="n">
-        <v>325000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5545.48</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.83</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Campus Activewear Ltd.</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>101573</t>
+          <t>INE278Y01022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Campus Activewear Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE278Y01022</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>2153580</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5226.31</v>
+      </c>
       <c r="F23" t="n">
-        <v>2153580</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5226.31</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.73</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brainbees Solutions Ltd.</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>102184</t>
+          <t>INE02RE01045</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brainbees Solutions Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE02RE01045</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>1499255</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5086.22</v>
+      </c>
       <c r="F24" t="n">
-        <v>1499255</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5086.22</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.68</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Whirlpool of India Ltd.</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100257</t>
+          <t>INE716A01013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Whirlpool of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE716A01013</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>385766</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4858.14</v>
+      </c>
       <c r="F25" t="n">
-        <v>385766</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4858.14</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.6</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Trent Ltd.</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100050</t>
+          <t>INE849A01020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Trent Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE849A01020</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4138</v>
+      </c>
       <c r="F26" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4138</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.37</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sheela Foam Ltd.</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100534</t>
+          <t>INE916U01025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sheela Foam Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE916U01025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>630464</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4062.08</v>
+      </c>
       <c r="F27" t="n">
-        <v>630464</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4062.08</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.34</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hawkins Cookers Ltd.</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>100529</t>
+          <t>INE979B01015</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hawkins Cookers Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE979B01015</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>48501</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3878.16</v>
+      </c>
       <c r="F28" t="n">
-        <v>48501</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3878.16</v>
-      </c>
-      <c r="H28" t="n">
         <v>1.28</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Flair Writing Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>102004</t>
+          <t>INE00Y201027</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flair Writing Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE00Y201027</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Household Products</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3874.23</v>
+      </c>
       <c r="F29" t="n">
-        <v>1550000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3874.23</v>
-      </c>
-      <c r="H29" t="n">
         <v>1.28</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Westlife Foodworld Ltd.</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100519</t>
+          <t>INE274F01020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Westlife Foodworld Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE274F01020</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>561453</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3765.67</v>
+      </c>
       <c r="F30" t="n">
-        <v>561453</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3765.67</v>
-      </c>
-      <c r="H30" t="n">
         <v>1.24</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mrs. Bectors Food Specialities Ltd.</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>101213</t>
+          <t>INE495P01012</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mrs. Bectors Food Specialities Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE495P01012</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>250030</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3726.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>250030</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3726.2</v>
-      </c>
-      <c r="H31" t="n">
         <v>1.23</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Godrej Consumer Products Ltd.</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>100157</t>
+          <t>INE102D01028</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Godrej Consumer Products Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE102D01028</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Personal Products</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>295100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3719.74</v>
+      </c>
       <c r="F32" t="n">
-        <v>295100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3719.74</v>
-      </c>
-      <c r="H32" t="n">
         <v>1.23</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chalet Hotels Ltd.</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>100873</t>
+          <t>INE427F01016</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chalet Hotels Ltd.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>INE427F01016</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>438760</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3473</v>
+      </c>
       <c r="F33" t="n">
-        <v>438760</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3473</v>
-      </c>
-      <c r="H33" t="n">
         <v>1.15</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Titan Company Ltd.</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100081</t>
+          <t>INE280A01028</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Titan Company Ltd.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>INE280A01028</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3379.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3379.7</v>
-      </c>
-      <c r="H34" t="n">
         <v>1.12</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TTK Prestige Ltd.</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100821</t>
+          <t>INE690A01028</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TTK Prestige Ltd.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>INE690A01028</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>530791</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3219.51</v>
+      </c>
       <c r="F35" t="n">
-        <v>530791</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3219.51</v>
-      </c>
-      <c r="H35" t="n">
         <v>1.06</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Vishal Mega Mart Ltd.</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>102512</t>
+          <t>INE01EA01019</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vishal Mega Mart Ltd.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>INE01EA01019</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>2700480</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3199.53</v>
+      </c>
       <c r="F36" t="n">
-        <v>2700480</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3199.53</v>
-      </c>
-      <c r="H36" t="n">
         <v>1.06</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>V-Guard Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100554</t>
+          <t>INE951I01027</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>V-Guard Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>INE951I01027</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>812502</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2930.29</v>
+      </c>
       <c r="F37" t="n">
-        <v>812502</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2930.29</v>
-      </c>
-      <c r="H37" t="n">
         <v>0.97</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Varun Beverages Ltd.</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>100830</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Varun Beverages Ltd.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>INE200M01039</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>530973</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2773.54</v>
+      </c>
       <c r="F38" t="n">
-        <v>530973</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2773.54</v>
-      </c>
-      <c r="H38" t="n">
         <v>0.92</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Go Fashion (India) Ltd.</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>101397</t>
+          <t>INE0BJS01011</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Go Fashion (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>INE0BJS01011</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>338164</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2657.63</v>
+      </c>
       <c r="F39" t="n">
-        <v>338164</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2657.63</v>
-      </c>
-      <c r="H39" t="n">
         <v>0.88</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd.</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>100119</t>
+          <t>INE155A01022</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tata Motors Ltd.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>INE155A01022</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2577</v>
+      </c>
       <c r="F40" t="n">
-        <v>400000</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2577</v>
-      </c>
-      <c r="H40" t="n">
         <v>0.85</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hatsun Agro Product Ltd.</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>100660</t>
+          <t>INE473B01035</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hatsun Agro Product Ltd.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>INE473B01035</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2490.81</v>
+      </c>
       <c r="F41" t="n">
-        <v>275000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2490.81</v>
-      </c>
-      <c r="H41" t="n">
         <v>0.82</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Stanley Lifestyles Ltd.</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>102148</t>
+          <t>INE01A001028</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Stanley Lifestyles Ltd.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>INE01A001028</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>757725</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2315.23</v>
+      </c>
       <c r="F42" t="n">
-        <v>757725</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2315.23</v>
-      </c>
-      <c r="H42" t="n">
         <v>0.76</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sula Vineyards Ltd.</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>101799</t>
+          <t>INE142Q01026</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sula Vineyards Ltd.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>INE142Q01026</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>807441</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2287.88</v>
+      </c>
       <c r="F43" t="n">
-        <v>807441</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2287.88</v>
-      </c>
-      <c r="H43" t="n">
         <v>0.76</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Procter &amp; Gamble Hygiene and Health Care Ltd.</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>100363</t>
+          <t>INE179A01014</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble Hygiene and Health Care Ltd.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>INE179A01014</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
           <t>Personal Products</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>14676</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2090.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>14676</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2090.3</v>
-      </c>
-      <c r="H44" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dodla Dairy Ltd.</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>101303</t>
+          <t>INE021O01019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dodla Dairy Ltd.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>INE021O01019</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2078</v>
+      </c>
       <c r="F45" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2078</v>
-      </c>
-      <c r="H45" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Avanti Feeds Ltd.</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>100559</t>
+          <t>INE871C01038</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Avanti Feeds Ltd.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>INE871C01038</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>200292</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1750.65</v>
+      </c>
       <c r="F46" t="n">
-        <v>200292</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1750.65</v>
-      </c>
-      <c r="H46" t="n">
         <v>0.58</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Relaxo Footwears Ltd.</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>100426</t>
+          <t>INE131B01039</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Relaxo Footwears Ltd.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>INE131B01039</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1188.42</v>
+      </c>
       <c r="F47" t="n">
-        <v>290000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1188.42</v>
-      </c>
-      <c r="H47" t="n">
         <v>0.39</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Restaurant Brands Asia Ltd.</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>101207</t>
+          <t>INE07T201019</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Restaurant Brands Asia Ltd.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>INE07T201019</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>1443344</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1169.4</v>
+      </c>
       <c r="F48" t="n">
-        <v>1443344</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1169.4</v>
-      </c>
-      <c r="H48" t="n">
         <v>0.39</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manpasand Beverages Ltd.</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>100427</t>
+          <t>INE122R01018</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Manpasand Beverages Ltd.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>INE122R01018</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="D49" t="n">
         <v>777068</v>
       </c>
-      <c r="G49" t="n">
+      <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>S**</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>182 DAY T-BILL 05.06.25</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1801270</t>
+          <t>IN002024Y340</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>182 DAY T-BILL 05.06.25</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>IN002024Y340</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
           <t>Sovereign</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>298.32</v>
+      </c>
       <c r="F50" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>298.32</v>
-      </c>
-      <c r="H50" t="n">
         <v>0.1</v>
       </c>
-      <c r="I50" t="n">
-        <v>5.8703</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
